--- a/biology/Médecine/Clifford_Whittingham_Beers/Clifford_Whittingham_Beers.xlsx
+++ b/biology/Médecine/Clifford_Whittingham_Beers/Clifford_Whittingham_Beers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clifford Whittingham Beers Whittingham, né le 30 mars 1876 à New Haven (Connecticut) et mort le 9 juillet 1943 à Providence (Rhode Island), est le fondateur du mouvement d'hygiène mentale aux USA.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi tous ses frères et sœurs, 5 en tout lui compris, tous souffraient de troubles psychiatriques et sont morts dans des établissements psychiatriques. Clifford Beers est diplômé en sciences de la Sheffield Scientific School de Yale en 1897.
 En 1900, il est d'abord interné dans un établissement psychiatrique privé puis transféré dans un établissement public avec une indication de troubles dépressifs et paranoïa. C'est pendant cette période qu'il subit et est témoin de graves mauvais traitements du personnel soignant. Il tire de son expérience un livre autobiographique avec les récits de ses hospitalisations en 1908 et, avec le soutien de certains médecins (William James et Adolf Meyer entre autres), il s'engage dans le travail de réformes du traitement des malades mentaux.
